--- a/metrics/R2/upto time/Fallo Cardiaco (UPTO).xlsx
+++ b/metrics/R2/upto time/Fallo Cardiaco (UPTO).xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4109762373268803</v>
+        <v>0.5979099422274643</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4109762373268803</v>
+        <v>0.5979099422274643</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4109762373268803</v>
+        <v>0.5979099422274643</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9967240983869617</v>
+        <v>0.9759543660648957</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9967870400518114</v>
+        <v>0.9767360375366406</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9967497589473302</v>
+        <v>0.97799768980242</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9982372990062709</v>
+        <v>0.9577018666665575</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9982433411695912</v>
+        <v>0.9575157361890717</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9982319426640003</v>
+        <v>0.9574641397952668</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9600733687961003</v>
+        <v>0.9465318436335539</v>
       </c>
       <c r="C5" t="n">
-        <v>0.96192595947037</v>
+        <v>0.942635599590719</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9651281891990474</v>
+        <v>0.9421258079716315</v>
       </c>
     </row>
   </sheetData>
